--- a/data/cooccurence_vs_genome_distance/PositiveSystemsSignifCloser.xlsx
+++ b/data/cooccurence_vs_genome_distance/PositiveSystemsSignifCloser.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
         <v>184</v>
       </c>
       <c r="E2">
-        <v>2.273644869942059e-18</v>
+        <v>1.023151781134381e-18</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>112</v>
       </c>
       <c r="E3">
-        <v>4.338258540684486e-32</v>
+        <v>1.381497133957859e-32</v>
       </c>
     </row>
     <row r="4">
@@ -444,7 +444,7 @@
         <v>573</v>
       </c>
       <c r="E4">
-        <v>3.423849813026052e-40</v>
+        <v>5.787821076036058e-41</v>
       </c>
     </row>
     <row r="5">
@@ -465,7 +465,7 @@
         <v>317</v>
       </c>
       <c r="E5">
-        <v>5.297531029192623e-76</v>
+        <v>2.526726522163256e-77</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>509</v>
       </c>
       <c r="E6">
-        <v>8.699652083690366e-20</v>
+        <v>3.211966965490551e-20</v>
       </c>
     </row>
     <row r="7">
@@ -507,28 +507,28 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>4.3352154287215e-06</v>
+        <v>3.61694638459831e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Retron XII</t>
+          <t>Zorya II</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Retron I-C</t>
+          <t>Druantia III</t>
         </is>
       </c>
       <c r="C8">
-        <v>-1706</v>
+        <v>212</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="E8">
-        <v>6.115515317791644e-06</v>
+        <v>1.396291478118768e-122</v>
       </c>
     </row>
     <row r="9">
@@ -539,122 +539,101 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Druantia III</t>
+          <t>RM IIG</t>
         </is>
       </c>
       <c r="C9">
-        <v>212</v>
+        <v>12970</v>
       </c>
       <c r="D9">
-        <v>334</v>
+        <v>402</v>
       </c>
       <c r="E9">
-        <v>4.04035137204417e-121</v>
+        <v>9.004065688885388e-70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Zorya II</t>
+          <t>darTG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RM IIG</t>
+          <t>RM I</t>
         </is>
       </c>
       <c r="C10">
-        <v>12970</v>
+        <v>-4834</v>
       </c>
       <c r="D10">
-        <v>402</v>
+        <v>191</v>
       </c>
       <c r="E10">
-        <v>8.51862323406152e-69</v>
+        <v>1.438786877729408e-12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>darTG</t>
+          <t>ietAS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RM I</t>
+          <t>RM III</t>
         </is>
       </c>
       <c r="C11">
-        <v>-4834</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="E11">
-        <v>4.516637998866965e-14</v>
+        <v>1.728879592773665e-17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ietAS</t>
+          <t>qatABCD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RM III</t>
+          <t>CBASS I</t>
         </is>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>553</v>
       </c>
       <c r="D12">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E12">
-        <v>2.653206813057576e-17</v>
+        <v>6.047585785268077e-36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qatABCD</t>
+          <t>tmn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CBASS I</t>
+          <t>Gabija</t>
         </is>
       </c>
       <c r="C13">
-        <v>553</v>
+        <v>1069</v>
       </c>
       <c r="D13">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E13">
-        <v>1.722152184252653e-35</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>tmn</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Gabija</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>1069</v>
-      </c>
-      <c r="D14">
-        <v>113</v>
-      </c>
-      <c r="E14">
-        <v>5.605016115135796e-30</v>
+        <v>3.943601629732092e-30</v>
       </c>
     </row>
   </sheetData>
